--- a/Simulador de FII/Dashboard - Dio Invest.xlsx
+++ b/Simulador de FII/Dashboard - Dio Invest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b33596b5c7488a/Documentos/Faculdade/Exercícios dos Cursos/Excel/Santander Excel com IA/Simulador de FII/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D858DFA3-EA81-4E07-B4A1-DBC2884ABB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D858DFA3-EA81-4E07-B4A1-DBC2884ABB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E93A08-9881-4F3E-AC2F-56EFCB9A9DC2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{24DEB6D7-0C92-44FB-8B49-78A883465D0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{24DEB6D7-0C92-44FB-8B49-78A883465D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,11 +343,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -1060,7 +1055,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1126,15 +1121,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1225,7 +1211,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1287,6 +1273,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4509,7 +4504,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
@@ -4522,14 +4517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -4542,12 +4537,12 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -4560,12 +4555,12 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
@@ -4578,12 +4573,12 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -4631,31 +4626,31 @@
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="43"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="18">
         <v>2000</v>
       </c>
@@ -4673,10 +4668,10 @@
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="19">
         <f>salario*0.3</f>
         <v>600</v>
@@ -4695,10 +4690,10 @@
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -4733,11 +4728,11 @@
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -4752,10 +4747,10 @@
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="18">
         <v>250</v>
       </c>
@@ -4773,10 +4768,10 @@
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="21">
         <v>5</v>
       </c>
@@ -4794,10 +4789,10 @@
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="47"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="24">
         <v>1.0800000000000001E-2</v>
       </c>
@@ -4815,10 +4810,10 @@
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="22">
         <f>FV(taxa_mensal,anos_investimento*12,aporte*-1)</f>
         <v>20951.00483981461</v>
@@ -4837,10 +4832,10 @@
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="23">
         <f>patrimonio*taxa_mensal</f>
         <v>226.27085226999779</v>
@@ -4876,34 +4871,34 @@
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="60" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65">
+      <c r="C20" s="63"/>
+      <c r="D20" s="62">
         <f>D13</f>
         <v>250</v>
       </c>
@@ -4922,7 +4917,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="26"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -4938,13 +4933,13 @@
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="61" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="17"/>
@@ -4961,14 +4956,14 @@
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="65">
         <f>VLOOKUP($D$19&amp;"-"&amp;B23,FII!$B:$E,4,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="66">
         <f>C23*$D$20</f>
         <v>50</v>
       </c>
@@ -4986,14 +4981,14 @@
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="68">
         <f>VLOOKUP($D$19&amp;"-"&amp;B24,FII!$B:$E,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="69">
         <f t="shared" ref="D24:D28" si="0">C24*$D$20</f>
         <v>12.5</v>
       </c>
@@ -5010,61 +5005,61 @@
       <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="68">
         <f>VLOOKUP($D$19&amp;"-"&amp;B25,FII!$B:$E,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="69">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="68">
         <f>VLOOKUP($D$19&amp;"-"&amp;B26,FII!$B:$E,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="69">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="68">
         <f>VLOOKUP($D$19&amp;"-"&amp;B27,FII!$B:$E,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="69">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="71">
         <f>VLOOKUP($D$19&amp;"-"&amp;B28,FII!$B:$E,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="72">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78">
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75">
         <f>SUM(D23:D28)</f>
         <v>250</v>
       </c>
@@ -5118,10 +5113,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
@@ -5350,8 +5345,8 @@
   </sheetPr>
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,286 +5359,286 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="81" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="str">
+      <c r="B3" s="30" t="str">
         <f>C3&amp;"-"&amp;D3</f>
         <v>Conservador-Papel</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="str">
+      <c r="B4" s="30" t="str">
         <f t="shared" ref="B4:B20" si="0">C4&amp;"-"&amp;D4</f>
         <v>Conservador-Tijolo</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="str">
+      <c r="B5" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Híbridos</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="str">
+      <c r="B6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="str">
+      <c r="B7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Desenvolvimento</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="str">
+      <c r="B8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Papel</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="32">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Tijolo</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="32">
         <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Híbridos</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="str">
+      <c r="B12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="str">
+      <c r="B13" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Desenvolvimento</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="str">
+      <c r="B14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="str">
+      <c r="B15" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Papel</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="str">
+      <c r="B16" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Tijolo</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="str">
+      <c r="B17" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Híbridos</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="str">
+      <c r="B18" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="str">
+      <c r="B19" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Desenvolvimento</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="str">
+      <c r="B20" s="36" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Hotelarias</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="38">
         <v>0.1</v>
       </c>
     </row>
